--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1694.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1694.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6210903327878896</v>
+        <v>0.561175525188446</v>
       </c>
       <c r="B1">
+        <v>1.386369347572327</v>
+      </c>
+      <c r="C1">
         <v>-1</v>
       </c>
-      <c r="C1">
-        <v>2.717948665313545</v>
-      </c>
       <c r="D1">
-        <v>1.893974974435437</v>
+        <v>1.6533123254776</v>
       </c>
       <c r="E1">
-        <v>1.605148872007996</v>
+        <v>1.471076607704163</v>
       </c>
     </row>
   </sheetData>
